--- a/outputs-r202/g__Olegusella_train.xlsx
+++ b/outputs-r202/g__Olegusella_train.xlsx
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.998842543908863</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.001157456091070577</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2.219933781328864e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.219933781328864e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.219933781328864e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.998842543908863</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.998842543908863</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.001157456091070577</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.219933781328864e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.219933781328864e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.219933781328864e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.998842543908863</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9985957142556279</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.001404285744305594</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2.219840573677493e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2.219840573677493e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.219840573677493e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.9985957142556279</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -652,22 +652,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.9985957142556279</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.001404285744305594</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2.219840573677493e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2.219840573677493e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2.219840573677493e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0.9985957142556279</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -682,22 +682,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9986003762890925</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.001399623710841007</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2.219840627738267e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2.219840627738267e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2.219840627738267e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0.9986003762890925</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -712,22 +712,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.998617605491146</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.001382394508787461</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2.219840082811038e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2.219840082811038e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2.219840082811038e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.998617605491146</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.9985985416887312</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.001401458311202168</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2.219840330129177e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2.219840330129177e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.219840330129177e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.9985985416887312</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.9986003762890925</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.001399623710841007</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2.219840627738267e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2.219840627738267e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.219840627738267e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.9986003762890925</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -798,7 +798,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000468855.1_12.fasta</t>
+          <t>RS_GCF_000468855.1_1.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -828,7 +828,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000468855.1_7.fasta</t>
+          <t>RS_GCF_000468855.1_15.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -858,26 +858,26 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900078545.1_12.fasta</t>
+          <t>RS_GCF_000468855.1_19.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.5048954930632518</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2.383526661632516e-13</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.4951045069360332</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2.383526661632517e-13</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.383526661632517e-13</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0.5048954930632518</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900078545.1_7.fasta</t>
+          <t>RS_GCF_902376015.1_0.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -918,7 +918,7 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900078545.1_9.fasta</t>
+          <t>RS_GCF_902376015.1_16.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -948,26 +948,26 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902376015.1_10.fasta</t>
+          <t>RS_GCF_000468855.1_0.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0.9894588198533547</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.01054118014657884</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2.219853210502627e-14</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>2.219853210502627e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2.219853210502627e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.9894588198533547</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -978,26 +978,26 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902376015.1_18.fasta</t>
+          <t>RS_GCF_900078545.1_13.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0.9950958820755573</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.004904117924375996</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2.219845962896088e-14</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.219845962896088e-14</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.219845962896088e-14</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.9950958820755573</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1008,26 +1008,26 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902376015.1_19.fasta</t>
+          <t>RS_GCF_900078545.1_19.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0.9951865182942536</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.004813481705679763</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.219845905763279e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.219845905763279e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.219845905763279e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0.9951865182942536</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1038,26 +1038,26 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000468855.1_17.fasta</t>
+          <t>RS_GCF_902376015.1_3.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9972220764583379</v>
+        <v>0.9951996116566078</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002777923541595454</v>
+        <v>0.004800388343325719</v>
       </c>
       <c r="D18" t="n">
-        <v>2.219842515940252e-14</v>
+        <v>2.219844936477502e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>2.219842515940252e-14</v>
+        <v>2.219844936477502e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>2.219842515940252e-14</v>
+        <v>2.219844936477502e-14</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9972220764583379</v>
+        <v>0.9951996116566078</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1068,26 +1068,26 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900078545.1_0.fasta</t>
+          <t>RS_GCF_000468855.1_10.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9970241616516209</v>
+        <v>0.99998455642159</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002975838348312445</v>
+        <v>1.544357834337471e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>2.219843167553894e-14</v>
+        <v>2.220439191234441e-14</v>
       </c>
       <c r="E19" t="n">
-        <v>2.219843167553894e-14</v>
+        <v>2.220439191234441e-14</v>
       </c>
       <c r="F19" t="n">
-        <v>2.219843167553894e-14</v>
+        <v>2.220439191234441e-14</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9970241616516209</v>
+        <v>0.99998455642159</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1098,26 +1098,26 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900078545.1_11.fasta</t>
+          <t>RS_GCF_000468855.1_13.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9968611659822068</v>
+        <v>0.9984926138971059</v>
       </c>
       <c r="C20" t="n">
-        <v>0.003138834017726602</v>
+        <v>0.001507386102827509</v>
       </c>
       <c r="D20" t="n">
-        <v>2.219842829353177e-14</v>
+        <v>2.21984054807018e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>2.219842829353177e-14</v>
+        <v>2.21984054807018e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>2.219842829353177e-14</v>
+        <v>2.21984054807018e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9968611659822068</v>
+        <v>0.9984926138971059</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1128,26 +1128,26 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900078545.1_15.fasta</t>
+          <t>RS_GCF_000468855.1_16.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9969284259009135</v>
+        <v>0.9999712965528783</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003071574099019872</v>
+        <v>2.870344705511687e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>2.219841909944438e-14</v>
+        <v>2.220433303432389e-14</v>
       </c>
       <c r="E21" t="n">
-        <v>2.219841909944438e-14</v>
+        <v>2.220433303432389e-14</v>
       </c>
       <c r="F21" t="n">
-        <v>2.219841909944438e-14</v>
+        <v>2.220433303432389e-14</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9969284259009135</v>
+        <v>0.9999712965528783</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1158,26 +1158,26 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900078545.1_17.fasta</t>
+          <t>RS_GCF_000468855.1_2.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9968615119648244</v>
+        <v>0.9999958647554584</v>
       </c>
       <c r="C22" t="n">
-        <v>0.003138488035109029</v>
+        <v>4.135244475078497e-06</v>
       </c>
       <c r="D22" t="n">
-        <v>2.219842823698763e-14</v>
+        <v>2.220444212855079e-14</v>
       </c>
       <c r="E22" t="n">
-        <v>2.219842823698763e-14</v>
+        <v>2.220444212855079e-14</v>
       </c>
       <c r="F22" t="n">
-        <v>2.219842823698763e-14</v>
+        <v>2.220444212855079e-14</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9968615119648244</v>
+        <v>0.9999958647554584</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1188,26 +1188,26 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900078545.1_4.fasta</t>
+          <t>RS_GCF_000468855.1_6.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9967699981739745</v>
+        <v>0.9999712965528783</v>
       </c>
       <c r="C23" t="n">
-        <v>0.003230001825958772</v>
+        <v>2.870344705511687e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>2.219842517366061e-14</v>
+        <v>2.220433303432389e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>2.219842517366061e-14</v>
+        <v>2.220433303432389e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>2.219842517366061e-14</v>
+        <v>2.220433303432389e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9967699981739745</v>
+        <v>0.9999712965528783</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1218,26 +1218,26 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902376015.1_11.fasta</t>
+          <t>RS_GCF_000468855.1_17.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9968611659822068</v>
+        <v>0.9977944859070114</v>
       </c>
       <c r="C24" t="n">
-        <v>0.003138834017726602</v>
+        <v>0.00220551409292189</v>
       </c>
       <c r="D24" t="n">
-        <v>2.219842829353177e-14</v>
+        <v>2.219841669273709e-14</v>
       </c>
       <c r="E24" t="n">
-        <v>2.219842829353177e-14</v>
+        <v>2.219841669273709e-14</v>
       </c>
       <c r="F24" t="n">
-        <v>2.219842829353177e-14</v>
+        <v>2.219841669273709e-14</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9968611659822068</v>
+        <v>0.9977944859070114</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1248,26 +1248,26 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902376015.1_14.fasta</t>
+          <t>RS_GCF_900078545.1_0.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9968628992750279</v>
+        <v>0.9976535885802952</v>
       </c>
       <c r="C25" t="n">
-        <v>0.003137100724905515</v>
+        <v>0.002346411419638204</v>
       </c>
       <c r="D25" t="n">
-        <v>2.219842801120383e-14</v>
+        <v>2.219841859050468e-14</v>
       </c>
       <c r="E25" t="n">
-        <v>2.219842801120383e-14</v>
+        <v>2.219841859050468e-14</v>
       </c>
       <c r="F25" t="n">
-        <v>2.219842801120383e-14</v>
+        <v>2.219841859050468e-14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9968628992750279</v>
+        <v>0.9976535885802952</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1278,26 +1278,26 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000468855.1_10.fasta</t>
+          <t>RS_GCF_900078545.1_11.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.99998455642159</v>
+        <v>0.9975374052483995</v>
       </c>
       <c r="C26" t="n">
-        <v>1.544357834337471e-05</v>
+        <v>0.002462594751533919</v>
       </c>
       <c r="D26" t="n">
-        <v>2.220439191234441e-14</v>
+        <v>2.219841102569463e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>2.220439191234441e-14</v>
+        <v>2.219841102569463e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>2.220439191234441e-14</v>
+        <v>2.219841102569463e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.99998455642159</v>
+        <v>0.9975374052483995</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1308,26 +1308,26 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000468855.1_13.fasta</t>
+          <t>RS_GCF_900078545.1_15.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9984926138971059</v>
+        <v>0.9975859479686504</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001507386102827509</v>
+        <v>0.002414052031282991</v>
       </c>
       <c r="D27" t="n">
-        <v>2.21984054807018e-14</v>
+        <v>2.219841210521038e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>2.21984054807018e-14</v>
+        <v>2.219841210521038e-14</v>
       </c>
       <c r="F27" t="n">
-        <v>2.21984054807018e-14</v>
+        <v>2.219841210521038e-14</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9984926138971059</v>
+        <v>0.9975859479686504</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1338,26 +1338,26 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000468855.1_16.fasta</t>
+          <t>RS_GCF_900078545.1_17.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9999712965528783</v>
+        <v>0.9975376726557038</v>
       </c>
       <c r="C28" t="n">
-        <v>2.870344705511687e-05</v>
+        <v>0.002462327344229588</v>
       </c>
       <c r="D28" t="n">
-        <v>2.220433303432389e-14</v>
+        <v>2.219841118186728e-14</v>
       </c>
       <c r="E28" t="n">
-        <v>2.220433303432389e-14</v>
+        <v>2.219841118186728e-14</v>
       </c>
       <c r="F28" t="n">
-        <v>2.220433303432389e-14</v>
+        <v>2.219841118186728e-14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9999712965528783</v>
+        <v>0.9975376726557038</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1368,26 +1368,26 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000468855.1_2.fasta</t>
+          <t>RS_GCF_900078545.1_4.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9999958647554584</v>
+        <v>0.9974743875997073</v>
       </c>
       <c r="C29" t="n">
-        <v>4.135244475078497e-06</v>
+        <v>0.002525612400226028</v>
       </c>
       <c r="D29" t="n">
-        <v>2.220444212855079e-14</v>
+        <v>2.21984227238442e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>2.220444212855079e-14</v>
+        <v>2.21984227238442e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>2.220444212855079e-14</v>
+        <v>2.21984227238442e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9999958647554584</v>
+        <v>0.9974743875997073</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1398,26 +1398,26 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000468855.1_6.fasta</t>
+          <t>RS_GCF_902376015.1_11.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9999712965528783</v>
+        <v>0.9975374052483995</v>
       </c>
       <c r="C30" t="n">
-        <v>2.870344705511687e-05</v>
+        <v>0.002462594751533919</v>
       </c>
       <c r="D30" t="n">
-        <v>2.220433303432389e-14</v>
+        <v>2.219841102569463e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>2.220433303432389e-14</v>
+        <v>2.219841102569463e-14</v>
       </c>
       <c r="F30" t="n">
-        <v>2.220433303432389e-14</v>
+        <v>2.219841102569463e-14</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9999712965528783</v>
+        <v>0.9975374052483995</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1428,26 +1428,26 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000468855.1_0.fasta</t>
+          <t>RS_GCF_902376015.1_14.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9854284779217899</v>
+        <v>0.9975387449287507</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01457152207814359</v>
+        <v>0.002461255071182659</v>
       </c>
       <c r="D31" t="n">
-        <v>2.219861269068523e-14</v>
+        <v>2.219841180897204e-14</v>
       </c>
       <c r="E31" t="n">
-        <v>2.219861269068523e-14</v>
+        <v>2.219841180897204e-14</v>
       </c>
       <c r="F31" t="n">
-        <v>2.219861269068523e-14</v>
+        <v>2.219841180897204e-14</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9854284779217899</v>
+        <v>0.9975387449287507</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1458,26 +1458,26 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900078545.1_13.fasta</t>
+          <t>RS_GCF_000468855.1_12.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9929041367991202</v>
+        <v>0.998842543908863</v>
       </c>
       <c r="C32" t="n">
-        <v>0.007095863200813354</v>
+        <v>0.001157456091070577</v>
       </c>
       <c r="D32" t="n">
-        <v>2.219847544130754e-14</v>
+        <v>2.219933781328864e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>2.219847544130754e-14</v>
+        <v>2.219933781328864e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>2.219847544130754e-14</v>
+        <v>2.219933781328864e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9929041367991202</v>
+        <v>0.998842543908863</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1488,26 +1488,26 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900078545.1_19.fasta</t>
+          <t>RS_GCF_000468855.1_7.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9930292059090408</v>
+        <v>0.998842543908863</v>
       </c>
       <c r="C33" t="n">
-        <v>0.006970794090892659</v>
+        <v>0.001157456091070577</v>
       </c>
       <c r="D33" t="n">
-        <v>2.219846790464315e-14</v>
+        <v>2.219933781328864e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>2.219846790464315e-14</v>
+        <v>2.219933781328864e-14</v>
       </c>
       <c r="F33" t="n">
-        <v>2.219846790464315e-14</v>
+        <v>2.219933781328864e-14</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9930292059090408</v>
+        <v>0.998842543908863</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1518,26 +1518,26 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902376015.1_3.fasta</t>
+          <t>RS_GCF_900078545.1_12.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.993052222675845</v>
+        <v>0.9985957142556279</v>
       </c>
       <c r="C34" t="n">
-        <v>0.006947777324088298</v>
+        <v>0.001404285744305594</v>
       </c>
       <c r="D34" t="n">
-        <v>2.219849683839205e-14</v>
+        <v>2.219840573677493e-14</v>
       </c>
       <c r="E34" t="n">
-        <v>2.219849683839205e-14</v>
+        <v>2.219840573677493e-14</v>
       </c>
       <c r="F34" t="n">
-        <v>2.219849683839205e-14</v>
+        <v>2.219840573677493e-14</v>
       </c>
       <c r="G34" t="n">
-        <v>0.993052222675845</v>
+        <v>0.9985957142556279</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1548,26 +1548,26 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000468855.1_1.fasta</t>
+          <t>RS_GCF_900078545.1_7.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0.9985957142556279</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.001404285744305594</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2.219840573677493e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>2.219840573677493e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2.219840573677493e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0.9985957142556279</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1578,26 +1578,26 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000468855.1_15.fasta</t>
+          <t>RS_GCF_900078545.1_9.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0.9986003762890925</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.001399623710841007</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2.219840627738267e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>2.219840627738267e-14</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>2.219840627738267e-14</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0.9986003762890925</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1608,26 +1608,26 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000468855.1_19.fasta</t>
+          <t>RS_GCF_902376015.1_10.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.5048954930632518</v>
+        <v>0.998617605491146</v>
       </c>
       <c r="C37" t="n">
-        <v>2.383526661632516e-13</v>
+        <v>0.001382394508787461</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4951045069360332</v>
+        <v>2.219840082811038e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>2.383526661632517e-13</v>
+        <v>2.219840082811038e-14</v>
       </c>
       <c r="F37" t="n">
-        <v>2.383526661632517e-13</v>
+        <v>2.219840082811038e-14</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5048954930632518</v>
+        <v>0.998617605491146</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1638,26 +1638,26 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902376015.1_0.fasta</t>
+          <t>RS_GCF_902376015.1_18.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0.9985985416887312</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.001401458311202168</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>2.219840330129177e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>2.219840330129177e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.219840330129177e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0.9985985416887312</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1668,26 +1668,26 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902376015.1_16.fasta</t>
+          <t>RS_GCF_902376015.1_19.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0.9986003762890925</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.001399623710841007</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>2.219840627738267e-14</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2.219840627738267e-14</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>2.219840627738267e-14</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0.9986003762890925</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.05199585870601194</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.7920165651759523</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.05199585870601194</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.05199585870601191</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.05199585870601194</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.7920165651759523</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -1793,22 +1793,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01476751884564859</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9409299246174058</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.01476751884564859</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.0147675188456486</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.01476751884564861</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.9409299246174058</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1823,22 +1823,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.05134599970043052</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.7946160011982779</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.05134599970043052</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.05134599970043052</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.05134599970043055</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.7946160011982779</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1853,22 +1853,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.02909015862964021</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.8836393654814392</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.0290901586296402</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.02909015862964019</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.02909015862964019</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0.8836393654814392</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1879,26 +1879,26 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000466405.1_0.fasta</t>
+          <t>RS_GCF_000466405.1_12.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.1735981151610471</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.3056075393558116</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.1735981151610471</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.1735981151610471</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.1735981151610471</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0.3056075393558116</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000466405.1_10.fasta</t>
+          <t>RS_GCF_000466405.1_17.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1939,7 +1939,7 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000466405.1_16.fasta</t>
+          <t>RS_GCF_000466405.1_19.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1969,26 +1969,26 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000466405.1_8.fasta</t>
+          <t>RS_GCF_000466405.1_11.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.02792602059306676</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.8882959176277329</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.02792602059306673</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.02792602059306674</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.02792602059306674</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.8882959176277329</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1999,26 +1999,26 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000466405.1_2.fasta</t>
+          <t>RS_GCF_000466405.1_13.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0178733790751048</v>
+        <v>0.01848172658811708</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9285064836995807</v>
+        <v>0.9260730936475317</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01787337907510479</v>
+        <v>0.01848172658811708</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01787337907510477</v>
+        <v>0.01848172658811706</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01787337907510481</v>
+        <v>0.01848172658811707</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9285064836995807</v>
+        <v>0.9260730936475317</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -2029,26 +2029,26 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000466405.1_5.fasta</t>
+          <t>RS_GCF_000466405.1_3.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.002766523095953502</v>
+        <v>0.01505826139762066</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9889339076161859</v>
+        <v>0.9397669544095173</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002766523095953513</v>
+        <v>0.01505826139762064</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002766523095953485</v>
+        <v>0.01505826139762063</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002766523095953503</v>
+        <v>0.01505826139762066</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9889339076161859</v>
+        <v>0.9397669544095173</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2059,26 +2059,26 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000466405.1_1.fasta</t>
+          <t>RS_GCF_000466405.1_6.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.000497384299009839</v>
+        <v>0.04385831148064381</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9980104628039608</v>
+        <v>0.824566754077425</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0004973842990098464</v>
+        <v>0.04385831148064381</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0004973842990098395</v>
+        <v>0.04385831148064377</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0004973842990098466</v>
+        <v>0.04385831148064377</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9980104628039608</v>
+        <v>0.824566754077425</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -2089,26 +2089,26 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000466405.1_14.fasta</t>
+          <t>RS_GCF_000466405.1_7.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0004969107021968274</v>
+        <v>0.01595294673233317</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9980123571912127</v>
+        <v>0.9361882130706676</v>
       </c>
       <c r="D13" t="n">
-        <v>0.000496910702196835</v>
+        <v>0.01595294673233316</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0004969107021968285</v>
+        <v>0.01595294673233312</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0004969107021968347</v>
+        <v>0.01595294673233317</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9980123571912127</v>
+        <v>0.9361882130706676</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -2119,26 +2119,26 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000466405.1_15.fasta</t>
+          <t>RS_GCF_000466405.1_9.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01261531330793673</v>
+        <v>0.02567476228783285</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9495387467682531</v>
+        <v>0.8973009508486687</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01261531330793674</v>
+        <v>0.02567476228783284</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01261531330793672</v>
+        <v>0.02567476228783283</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01261531330793674</v>
+        <v>0.02567476228783284</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9495387467682531</v>
+        <v>0.8973009508486687</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -2149,26 +2149,26 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000466405.1_18.fasta</t>
+          <t>RS_GCF_000466405.1_1.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0007297493495725448</v>
+        <v>0.000497384299009839</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9970810026017097</v>
+        <v>0.9980104628039608</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0007297493495725552</v>
+        <v>0.0004973842990098464</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0007297493495725448</v>
+        <v>0.0004973842990098395</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0007297493495725544</v>
+        <v>0.0004973842990098466</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9970810026017097</v>
+        <v>0.9980104628039608</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -2179,26 +2179,26 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000466405.1_4.fasta</t>
+          <t>RS_GCF_000466405.1_14.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.007838532237133683</v>
+        <v>0.0004969107021968274</v>
       </c>
       <c r="C16" t="n">
-        <v>0.968645871051465</v>
+        <v>0.9980123571912127</v>
       </c>
       <c r="D16" t="n">
-        <v>0.007838532237133693</v>
+        <v>0.000496910702196835</v>
       </c>
       <c r="E16" t="n">
-        <v>0.007838532237133692</v>
+        <v>0.0004969107021968285</v>
       </c>
       <c r="F16" t="n">
-        <v>0.007838532237133709</v>
+        <v>0.0004969107021968347</v>
       </c>
       <c r="G16" t="n">
-        <v>0.968645871051465</v>
+        <v>0.9980123571912127</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2209,26 +2209,26 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000466405.1_11.fasta</t>
+          <t>RS_GCF_000466405.1_15.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03135161664471946</v>
+        <v>0.01261531330793673</v>
       </c>
       <c r="C17" t="n">
-        <v>0.874593533421122</v>
+        <v>0.9495387467682531</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03135161664471949</v>
+        <v>0.01261531330793674</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03135161664471947</v>
+        <v>0.01261531330793672</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03135161664471949</v>
+        <v>0.01261531330793674</v>
       </c>
       <c r="G17" t="n">
-        <v>0.874593533421122</v>
+        <v>0.9495387467682531</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -2239,26 +2239,26 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000466405.1_13.fasta</t>
+          <t>RS_GCF_000466405.1_18.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02162125499967738</v>
+        <v>0.0007297493495725448</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9135149800012907</v>
+        <v>0.9970810026017097</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02162125499967736</v>
+        <v>0.0007297493495725552</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02162125499967732</v>
+        <v>0.0007297493495725448</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02162125499967734</v>
+        <v>0.0007297493495725544</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9135149800012907</v>
+        <v>0.9970810026017097</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2269,26 +2269,26 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000466405.1_3.fasta</t>
+          <t>RS_GCF_000466405.1_4.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01797233962245794</v>
+        <v>0.007838532237133683</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9281106415101684</v>
+        <v>0.968645871051465</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01797233962245793</v>
+        <v>0.007838532237133693</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01797233962245793</v>
+        <v>0.007838532237133692</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01797233962245794</v>
+        <v>0.007838532237133709</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9281106415101684</v>
+        <v>0.968645871051465</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2299,26 +2299,26 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000466405.1_6.fasta</t>
+          <t>RS_GCF_000466405.1_2.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.04703340014426713</v>
+        <v>0.02786647052773214</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8118663994229315</v>
+        <v>0.8885341178890716</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04703340014426714</v>
+        <v>0.02786647052773213</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04703340014426713</v>
+        <v>0.02786647052773211</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04703340014426714</v>
+        <v>0.02786647052773212</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8118663994229315</v>
+        <v>0.8885341178890716</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2329,26 +2329,26 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000466405.1_7.fasta</t>
+          <t>RS_GCF_000466405.1_5.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01893391679949678</v>
+        <v>0.004678993381555297</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9242643328020129</v>
+        <v>0.9812840264737789</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01893391679949678</v>
+        <v>0.004678993381555306</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01893391679949673</v>
+        <v>0.004678993381555292</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01893391679949676</v>
+        <v>0.00467899338155531</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9242643328020129</v>
+        <v>0.9812840264737789</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2359,26 +2359,26 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000466405.1_9.fasta</t>
+          <t>RS_GCF_000466405.1_0.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02906917190724685</v>
+        <v>0.05199585870601194</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8837233123710128</v>
+        <v>0.7920165651759523</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02906917190724685</v>
+        <v>0.05199585870601194</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02906917190724682</v>
+        <v>0.05199585870601191</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02906917190724683</v>
+        <v>0.05199585870601194</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8837233123710128</v>
+        <v>0.7920165651759523</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2389,26 +2389,26 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000466405.1_12.fasta</t>
+          <t>RS_GCF_000466405.1_10.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1735981151610471</v>
+        <v>0.01476751884564859</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3056075393558116</v>
+        <v>0.9409299246174058</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1735981151610471</v>
+        <v>0.01476751884564859</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1735981151610471</v>
+        <v>0.0147675188456486</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1735981151610471</v>
+        <v>0.01476751884564861</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3056075393558116</v>
+        <v>0.9409299246174058</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2419,26 +2419,26 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000466405.1_17.fasta</t>
+          <t>RS_GCF_000466405.1_16.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.05134599970043052</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0.7946160011982779</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.05134599970043052</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.05134599970043052</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.05134599970043055</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0.7946160011982779</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2449,26 +2449,26 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000466405.1_19.fasta</t>
+          <t>RS_GCF_000466405.1_8.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.02909015862964021</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0.8836393654814392</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.0290901586296402</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.02909015862964019</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.02909015862964019</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0.8836393654814392</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2544,22 +2544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2.220446049245339e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.106615582010762e-11</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9999999999888672</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.220446049245339e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.220446049245339e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.9999999999888672</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -2574,22 +2574,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2.22044604902746e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.016869662466196e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9999999994982464</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.22044604902746e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.22044604902746e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.9999999994982464</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -2604,22 +2604,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2.220446049209614e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9.15141293691572e-11</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9999999999084193</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2.220446049209614e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.220446049209614e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.9999999999084193</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002399205.1_8.fasta</t>
+          <t>GB_GCA_002397145.1_5.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2660,7 +2660,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002400225.1_8.fasta</t>
+          <t>GB_GCA_002407925.1_16.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2690,7 +2690,7 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002423885.1_16.fasta</t>
+          <t>GB_GCA_002409535.1_1.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2720,26 +2720,26 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002312035.1_15.fasta</t>
+          <t>GB_GCA_002409845.1_9.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.2204460346293e-14</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>3.292346492754572e-08</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999999670764685</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2.2204460346293e-14</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2.2204460346293e-14</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9999999670764685</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -2750,26 +2750,26 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002397145.1_4.fasta</t>
+          <t>GB_GCA_002423885.1_1.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.220446048749577e-14</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.127424382303034e-09</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999999988725089</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>2.220446048749577e-14</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2.220446048749577e-14</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9999999988725089</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -2780,26 +2780,26 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002399205.1_13.fasta</t>
+          <t>GB_GCA_903789435.1_7.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.220446048719007e-14</v>
+        <v>2.219940429676197e-14</v>
       </c>
       <c r="C10" t="n">
-        <v>1.196262342964617e-09</v>
+        <v>0.07652721059513264</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999999988036711</v>
+        <v>0.9234727894048006</v>
       </c>
       <c r="E10" t="n">
-        <v>2.220446048719007e-14</v>
+        <v>2.219940429676197e-14</v>
       </c>
       <c r="F10" t="n">
-        <v>2.220446048719007e-14</v>
+        <v>2.219940429676197e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9999999988036711</v>
+        <v>0.9234727894048006</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -2810,26 +2810,26 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002399205.1_16.fasta</t>
+          <t>GB_GCA_002397865.1_16.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.220446048968301e-14</v>
+        <v>2.220446028375728e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>6.349024830783189e-10</v>
+        <v>4.700526090945702e-08</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999999993650309</v>
+        <v>0.9999999529946724</v>
       </c>
       <c r="E11" t="n">
-        <v>2.220446048968301e-14</v>
+        <v>2.220446028375728e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>2.220446048968301e-14</v>
+        <v>2.220446028375728e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9999999993650309</v>
+        <v>0.9999999529946724</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2840,26 +2840,26 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002400225.1_0.fasta</t>
+          <t>GB_GCA_002397865.1_4.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.22044604820666e-14</v>
+        <v>2.220446028375728e-14</v>
       </c>
       <c r="C12" t="n">
-        <v>2.349966379830613e-09</v>
+        <v>4.700526090945702e-08</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999999976499671</v>
+        <v>0.9999999529946724</v>
       </c>
       <c r="E12" t="n">
-        <v>2.22044604820666e-14</v>
+        <v>2.220446028375728e-14</v>
       </c>
       <c r="F12" t="n">
-        <v>2.22044604820666e-14</v>
+        <v>2.220446028375728e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9999999976499671</v>
+        <v>0.9999999529946724</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -2870,26 +2870,26 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002407925.1_4.fasta</t>
+          <t>GB_GCA_002400225.1_11.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.220446044884313e-14</v>
+        <v>2.220445638795964e-14</v>
       </c>
       <c r="C13" t="n">
-        <v>9.831223900457959e-09</v>
+        <v>9.242633987869489e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999999901687094</v>
+        <v>0.9999990757365346</v>
       </c>
       <c r="E13" t="n">
-        <v>2.220446044884313e-14</v>
+        <v>2.220445638795964e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>2.220446044884313e-14</v>
+        <v>2.220445638795964e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9999999901687094</v>
+        <v>0.9999990757365346</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -2900,26 +2900,26 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002407925.1_7.fasta</t>
+          <t>GB_GCA_002409295.1_9.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.220446041803841e-14</v>
+        <v>2.22044602173072e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>1.67678298671079e-08</v>
+        <v>6.196849117964761e-08</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999999832321035</v>
+        <v>0.9999999380314423</v>
       </c>
       <c r="E14" t="n">
-        <v>2.220446041803841e-14</v>
+        <v>2.22044602173072e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>2.220446041803841e-14</v>
+        <v>2.22044602173072e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9999999832321035</v>
+        <v>0.9999999380314423</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -2930,26 +2930,26 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002397865.1_0.fasta</t>
+          <t>GB_GCA_002409535.1_18.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.220446049245793e-14</v>
+        <v>2.220436326298995e-14</v>
       </c>
       <c r="C15" t="n">
-        <v>1.004587119909583e-11</v>
+        <v>2.189554612704344e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999999999898874</v>
+        <v>0.9999781044538062</v>
       </c>
       <c r="E15" t="n">
-        <v>2.220446049245793e-14</v>
+        <v>2.220436326298995e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>2.220446049245793e-14</v>
+        <v>2.220436326298995e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9999999999898874</v>
+        <v>0.9999781044538062</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -2960,26 +2960,26 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002398695.1_19.fasta</t>
+          <t>GB_GCA_002409845.1_17.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.220446049246688e-14</v>
+        <v>2.220446008694731e-14</v>
       </c>
       <c r="C16" t="n">
-        <v>8.02878090508864e-12</v>
+        <v>9.132294288738824e-08</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999999999919046</v>
+        <v>0.9999999086769905</v>
       </c>
       <c r="E16" t="n">
-        <v>2.220446049246688e-14</v>
+        <v>2.220446008694731e-14</v>
       </c>
       <c r="F16" t="n">
-        <v>2.220446049246688e-14</v>
+        <v>2.220446008694731e-14</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9999999999919046</v>
+        <v>0.9999999086769905</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2990,26 +2990,26 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002399855.1_2.fasta</t>
+          <t>GB_GCA_012516605.1_14.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.220446049248849e-14</v>
+        <v>2.220445469112883e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>3.163611195615062e-12</v>
+        <v>1.306358229831142e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999999999967698</v>
+        <v>0.9999986936417036</v>
       </c>
       <c r="E17" t="n">
-        <v>2.220446049248849e-14</v>
+        <v>2.220445469112883e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>2.220446049248849e-14</v>
+        <v>2.220445469112883e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9999999999967698</v>
+        <v>0.9999986936417036</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -3020,26 +3020,26 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002409535.1_5.fasta</t>
+          <t>GB_GCA_012516605.1_17.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.220446049233261e-14</v>
+        <v>2.220444487126895e-14</v>
       </c>
       <c r="C18" t="n">
-        <v>3.826520653476896e-11</v>
+        <v>3.517625385771761e-06</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999999999616681</v>
+        <v>0.9999964823745475</v>
       </c>
       <c r="E18" t="n">
-        <v>2.220446049233261e-14</v>
+        <v>2.220444487126895e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>2.220446049233261e-14</v>
+        <v>2.220444487126895e-14</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9999999999616681</v>
+        <v>0.9999964823745475</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -3050,26 +3050,26 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002409845.1_2.fasta</t>
+          <t>GB_GCA_002397865.1_0.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.220446049247835e-14</v>
+        <v>2.220446049245793e-14</v>
       </c>
       <c r="C19" t="n">
-        <v>5.446274593969573e-12</v>
+        <v>1.004587119909583e-11</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999999999944872</v>
+        <v>0.9999999999898874</v>
       </c>
       <c r="E19" t="n">
-        <v>2.220446049247835e-14</v>
+        <v>2.220446049245793e-14</v>
       </c>
       <c r="F19" t="n">
-        <v>2.220446049247835e-14</v>
+        <v>2.220446049245793e-14</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9999999999944872</v>
+        <v>0.9999999999898874</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -3080,26 +3080,26 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002424225.1_19.fasta</t>
+          <t>GB_GCA_002398695.1_19.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.220446049249449e-14</v>
+        <v>2.220446049246688e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>1.811919930278102e-12</v>
+        <v>8.02878090508864e-12</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999999999981215</v>
+        <v>0.9999999999919046</v>
       </c>
       <c r="E20" t="n">
-        <v>2.220446049249449e-14</v>
+        <v>2.220446049246688e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>2.220446049249449e-14</v>
+        <v>2.220446049246688e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9999999999981215</v>
+        <v>0.9999999999919046</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -3110,26 +3110,26 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002397865.1_16.fasta</t>
+          <t>GB_GCA_002399855.1_2.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.220445962524606e-14</v>
+        <v>2.220446049248849e-14</v>
       </c>
       <c r="C21" t="n">
-        <v>1.952889105320498e-07</v>
+        <v>3.163611195615062e-12</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999998047110229</v>
+        <v>0.9999999999967698</v>
       </c>
       <c r="E21" t="n">
-        <v>2.220445962524606e-14</v>
+        <v>2.220446049248849e-14</v>
       </c>
       <c r="F21" t="n">
-        <v>2.220445962524606e-14</v>
+        <v>2.220446049248849e-14</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9999998047110229</v>
+        <v>0.9999999999967698</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -3140,26 +3140,26 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002397865.1_4.fasta</t>
+          <t>GB_GCA_002409535.1_5.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.220445962524606e-14</v>
+        <v>2.220446049233261e-14</v>
       </c>
       <c r="C22" t="n">
-        <v>1.952889105320498e-07</v>
+        <v>3.826520653476896e-11</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999998047110229</v>
+        <v>0.9999999999616681</v>
       </c>
       <c r="E22" t="n">
-        <v>2.220445962524606e-14</v>
+        <v>2.220446049233261e-14</v>
       </c>
       <c r="F22" t="n">
-        <v>2.220445962524606e-14</v>
+        <v>2.220446049233261e-14</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9999998047110229</v>
+        <v>0.9999999999616681</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -3170,26 +3170,26 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002400225.1_11.fasta</t>
+          <t>GB_GCA_002409845.1_2.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.220444716499412e-14</v>
+        <v>2.220446049247835e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>3.001114515784229e-06</v>
+        <v>5.446274593969573e-12</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999969988854176</v>
+        <v>0.9999999999944872</v>
       </c>
       <c r="E23" t="n">
-        <v>2.220444716499412e-14</v>
+        <v>2.220446049247835e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>2.220444716499412e-14</v>
+        <v>2.220446049247835e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9999969988854176</v>
+        <v>0.9999999999944872</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -3200,26 +3200,26 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002409295.1_9.fasta</t>
+          <t>GB_GCA_002424225.1_19.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.22044593750205e-14</v>
+        <v>2.220446049249449e-14</v>
       </c>
       <c r="C24" t="n">
-        <v>2.516347704463881e-07</v>
+        <v>1.811919930278102e-12</v>
       </c>
       <c r="D24" t="n">
-        <v>0.999999748365163</v>
+        <v>0.9999999999981215</v>
       </c>
       <c r="E24" t="n">
-        <v>2.22044593750205e-14</v>
+        <v>2.220446049249449e-14</v>
       </c>
       <c r="F24" t="n">
-        <v>2.22044593750205e-14</v>
+        <v>2.220446049249449e-14</v>
       </c>
       <c r="G24" t="n">
-        <v>0.999999748365163</v>
+        <v>0.9999999999981215</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -3230,26 +3230,26 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002409535.1_18.fasta</t>
+          <t>GB_GCA_002312035.1_15.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.220421756852791e-14</v>
+        <v>2.220446035396041e-14</v>
       </c>
       <c r="C25" t="n">
-        <v>5.471039637103747e-05</v>
+        <v>3.119691719424829e-08</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999452896035623</v>
+        <v>0.9999999688030161</v>
       </c>
       <c r="E25" t="n">
-        <v>2.220421756852791e-14</v>
+        <v>2.220446035396041e-14</v>
       </c>
       <c r="F25" t="n">
-        <v>2.220421756852791e-14</v>
+        <v>2.220446035396041e-14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9999452896035623</v>
+        <v>0.9999999688030161</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -3260,26 +3260,26 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002409845.1_17.fasta</t>
+          <t>GB_GCA_002397145.1_4.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.220445889767245e-14</v>
+        <v>2.220446048738118e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>3.591241872915267e-07</v>
+        <v>1.153227745434703e-09</v>
       </c>
       <c r="D26" t="n">
-        <v>0.999999640875746</v>
+        <v>0.9999999988467057</v>
       </c>
       <c r="E26" t="n">
-        <v>2.220445889767245e-14</v>
+        <v>2.220446048738118e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>2.220445889767245e-14</v>
+        <v>2.220446048738118e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.999999640875746</v>
+        <v>0.9999999988467057</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -3290,26 +3290,26 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012516605.1_14.fasta</t>
+          <t>GB_GCA_002399205.1_13.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.220444218708996e-14</v>
+        <v>2.220446048707578e-14</v>
       </c>
       <c r="C27" t="n">
-        <v>4.12206230425936e-06</v>
+        <v>1.221998237652142e-09</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9999958779376292</v>
+        <v>0.9999999987779352</v>
       </c>
       <c r="E27" t="n">
-        <v>2.220444218708996e-14</v>
+        <v>2.220446048707578e-14</v>
       </c>
       <c r="F27" t="n">
-        <v>2.220444218708996e-14</v>
+        <v>2.220446048707578e-14</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9999958779376292</v>
+        <v>0.9999999987779352</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -3320,26 +3320,26 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012516605.1_17.fasta</t>
+          <t>GB_GCA_002399205.1_16.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.220441508171676e-14</v>
+        <v>2.220446048958069e-14</v>
       </c>
       <c r="C28" t="n">
-        <v>1.022590663283793e-05</v>
+        <v>6.579429257121317e-10</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9999897740933005</v>
+        <v>0.9999999993419905</v>
       </c>
       <c r="E28" t="n">
-        <v>2.220441508171676e-14</v>
+        <v>2.220446048958069e-14</v>
       </c>
       <c r="F28" t="n">
-        <v>2.220441508171676e-14</v>
+        <v>2.220446048958069e-14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9999897740933005</v>
+        <v>0.9999999993419905</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -3350,26 +3350,26 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002397145.1_5.fasta</t>
+          <t>GB_GCA_002400225.1_0.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.220446048200401e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>2.364057616656797e-09</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.9999999976358758</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>2.220446048200401e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2.220446048200401e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0.9999999976358758</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -3380,26 +3380,26 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002407925.1_16.fasta</t>
+          <t>GB_GCA_002407925.1_4.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>2.220446044998349e-14</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>9.574439123001141e-09</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0.9999999904254941</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2.220446044998349e-14</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2.220446044998349e-14</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0.9999999904254941</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -3410,26 +3410,26 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002409535.1_1.fasta</t>
+          <t>GB_GCA_002407925.1_7.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>2.220446042085583e-14</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1.613340591390625e-08</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.9999999838665274</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2.220446042085583e-14</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2.220446042085583e-14</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0.9999999838665274</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -3440,26 +3440,26 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002409845.1_9.fasta</t>
+          <t>GB_GCA_002399205.1_8.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.220446049245339e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.106615582010762e-11</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.9999999999888672</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>2.220446049245339e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2.220446049245339e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.9999999999888672</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3470,26 +3470,26 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002423885.1_1.fasta</t>
+          <t>GB_GCA_002400225.1_8.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>2.22044604902746e-14</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>5.016869662466196e-10</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.9999999994982464</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>2.22044604902746e-14</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2.22044604902746e-14</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0.9999999994982464</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3500,26 +3500,26 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903789435.1_7.fasta</t>
+          <t>GB_GCA_002423885.1_16.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.219940429676197e-14</v>
+        <v>2.220446049209614e-14</v>
       </c>
       <c r="C34" t="n">
-        <v>0.07652721059513264</v>
+        <v>9.15141293691572e-11</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9234727894048006</v>
+        <v>0.9999999999084193</v>
       </c>
       <c r="E34" t="n">
-        <v>2.219940429676197e-14</v>
+        <v>2.220446049209614e-14</v>
       </c>
       <c r="F34" t="n">
-        <v>2.219940429676197e-14</v>
+        <v>2.220446049209614e-14</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9234727894048006</v>
+        <v>0.9999999999084193</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -3595,22 +3595,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2.220446049197374e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.190761963409803e-10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2.220446049197374e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9999999998808572</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.220446049197374e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.9999999998808572</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -3715,22 +3715,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.162363677496757</v>
+        <v>0.1047250537446042</v>
       </c>
       <c r="C6" t="n">
-        <v>0.162363677496757</v>
+        <v>0.2541016840140205</v>
       </c>
       <c r="D6" t="n">
-        <v>0.162363677496757</v>
+        <v>0.1047250537446042</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3505452900129719</v>
+        <v>0.4317231547521669</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1623636774967571</v>
+        <v>0.1047250537446042</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3505452900129719</v>
+        <v>0.4317231547521669</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -3771,26 +3771,26 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002349685.1_6.fasta</t>
+          <t>GB_GCA_002349685.1_2.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2.220005565410296e-14</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2.220005565410296e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2.220005565410296e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0.8878041751147661</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.1121958248851673</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.8878041751147661</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314685.1_16.fasta</t>
+          <t>GB_GCA_900314685.1_11.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3831,7 +3831,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902764605.1_16.fasta</t>
+          <t>GB_GCA_900314685.1_9.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3861,7 +3861,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902777465.1_19.fasta</t>
+          <t>GB_GCA_902762185.1_6.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -3891,26 +3891,26 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902788225.1_2.fasta</t>
+          <t>GB_GCA_902764605.1_11.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.162363677496757</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.162363677496757</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.162363677496757</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3505452900129719</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1623636774967571</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3505452900129719</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902788225.1_7.fasta</t>
+          <t>GB_GCA_902777785.1_19.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -3951,26 +3951,26 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002349685.1_10.fasta</t>
+          <t>GB_GCA_902778025.1_14.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.220446047612571e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3.68773599487136e-09</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2.220446047612571e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999999963121974</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>2.220446047612571e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9999999963121974</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3981,26 +3981,26 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314685.1_15.fasta</t>
+          <t>GB_GCA_902778025.1_19.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.220446049193473e-14</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.278586649433563e-10</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2.220446049193473e-14</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999999998720748</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>2.220446049193473e-14</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9999999998720748</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -4011,26 +4011,26 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902764605.1_1.fasta</t>
+          <t>GB_GCA_902781485.1_16.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.220446045927038e-14</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>7.483217479430951e-09</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2.220446045927038e-14</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999999925167158</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>2.220446045927038e-14</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9999999925167158</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -4041,26 +4041,26 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902764605.1_7.fasta</t>
+          <t>GB_GCA_002349685.1_7.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.220446049041915e-14</v>
+        <v>2.220446047529486e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>4.691386256307007e-10</v>
+        <v>3.874826517022683e-09</v>
       </c>
       <c r="D17" t="n">
-        <v>2.220446049041915e-14</v>
+        <v>2.220446047529486e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999999995307948</v>
+        <v>0.9999999961251068</v>
       </c>
       <c r="F17" t="n">
-        <v>2.220446049041915e-14</v>
+        <v>2.220446047529486e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9999999995307948</v>
+        <v>0.9999999961251068</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -4071,26 +4071,26 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902777785.1_14.fasta</t>
+          <t>GB_GCA_002472065.1_17.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.220446045439164e-14</v>
+        <v>2.220141243166976e-14</v>
       </c>
       <c r="C18" t="n">
-        <v>8.581811079506903e-09</v>
+        <v>0.0006877500599662565</v>
       </c>
       <c r="D18" t="n">
-        <v>2.220446045439164e-14</v>
+        <v>2.220141243166976e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999999914181222</v>
+        <v>0.9993122499399673</v>
       </c>
       <c r="F18" t="n">
-        <v>2.220446045439164e-14</v>
+        <v>2.220141243166976e-14</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9999999914181222</v>
+        <v>0.9993122499399673</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -4101,26 +4101,26 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314685.1_2.fasta</t>
+          <t>GB_GCA_900314685.1_10.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2.220446048665024e-14</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.317822183148953e-09</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.220446048665024e-14</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0.9999999986821113</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2.220446048665024e-14</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.9999999986821113</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902762185.1_17.fasta</t>
+          <t>GB_GCA_902777465.1_12.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -4161,26 +4161,26 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902764605.1_15.fasta</t>
+          <t>GB_GCA_902777785.1_16.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.220446049078078e-14</v>
+        <v>2.220426829734372e-14</v>
       </c>
       <c r="C21" t="n">
-        <v>3.877054137281925e-10</v>
+        <v>4.328399797243909e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>2.220446049078078e-14</v>
+        <v>2.220426829734372e-14</v>
       </c>
       <c r="E21" t="n">
-        <v>0.999999999612228</v>
+        <v>0.9999567160019609</v>
       </c>
       <c r="F21" t="n">
-        <v>2.220446049078078e-14</v>
+        <v>2.220426829734372e-14</v>
       </c>
       <c r="G21" t="n">
-        <v>0.999999999612228</v>
+        <v>0.9999567160019609</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -4191,26 +4191,26 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902777465.1_3.fasta</t>
+          <t>GB_GCA_900314685.1_2.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.220446049250233e-14</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>4.725825840545115e-14</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2.220446049250233e-14</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999999999998862</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>2.220446049250233e-14</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9999999999998862</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -4221,26 +4221,26 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902778025.1_2.fasta</t>
+          <t>GB_GCA_902762185.1_17.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1607410388717929</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1607410388717929</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.160741038871793</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.357035844512828</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1607410388717932</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.357035844512828</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -4251,26 +4251,26 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002349685.1_7.fasta</t>
+          <t>GB_GCA_902764605.1_15.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.220446040461247e-14</v>
+        <v>2.220446049078078e-14</v>
       </c>
       <c r="C24" t="n">
-        <v>1.979108443803977e-08</v>
+        <v>3.877054137281925e-10</v>
       </c>
       <c r="D24" t="n">
-        <v>2.220446040461247e-14</v>
+        <v>2.220446049078078e-14</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999999802088489</v>
+        <v>0.999999999612228</v>
       </c>
       <c r="F24" t="n">
-        <v>2.220446040461247e-14</v>
+        <v>2.220446049078078e-14</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9999999802088489</v>
+        <v>0.999999999612228</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -4281,26 +4281,26 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002472065.1_17.fasta</t>
+          <t>GB_GCA_902777465.1_3.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.219875352860031e-14</v>
+        <v>2.220446049250233e-14</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001289977261977496</v>
+        <v>4.725825840545115e-14</v>
       </c>
       <c r="D25" t="n">
-        <v>2.219875352860031e-14</v>
+        <v>2.220446049250233e-14</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9987100227379559</v>
+        <v>0.9999999999998862</v>
       </c>
       <c r="F25" t="n">
-        <v>2.219875352860031e-14</v>
+        <v>2.220446049250233e-14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9987100227379559</v>
+        <v>0.9999999999998862</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -4311,26 +4311,26 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314685.1_10.fasta</t>
+          <t>GB_GCA_902778025.1_2.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.220446045982108e-14</v>
+        <v>0.1607410388717929</v>
       </c>
       <c r="C26" t="n">
-        <v>7.359210164811608e-09</v>
+        <v>0.1607410388717929</v>
       </c>
       <c r="D26" t="n">
-        <v>2.220446045982108e-14</v>
+        <v>0.160741038871793</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999999926407231</v>
+        <v>0.357035844512828</v>
       </c>
       <c r="F26" t="n">
-        <v>2.220446045982108e-14</v>
+        <v>0.1607410388717932</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9999999926407231</v>
+        <v>0.357035844512828</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -4341,26 +4341,26 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902777465.1_12.fasta</t>
+          <t>GB_GCA_002349685.1_10.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2.220446047619494e-14</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>3.67214386723343e-09</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>2.220446047619494e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0.9999999963277895</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2.220446047619494e-14</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0.9999999963277895</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -4371,26 +4371,26 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902777785.1_16.fasta</t>
+          <t>GB_GCA_900314685.1_15.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.22040066963817e-14</v>
+        <v>2.220446049189236e-14</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0001022164511213586</v>
+        <v>1.374008401187843e-10</v>
       </c>
       <c r="D28" t="n">
-        <v>2.22040066963817e-14</v>
+        <v>2.220446049189236e-14</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9998977835488121</v>
+        <v>0.9999999998625325</v>
       </c>
       <c r="F28" t="n">
-        <v>2.22040066963817e-14</v>
+        <v>2.220446049189236e-14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9998977835488121</v>
+        <v>0.9999999998625325</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -4401,26 +4401,26 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002349685.1_2.fasta</t>
+          <t>GB_GCA_902764605.1_1.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.220005565410296e-14</v>
+        <v>2.220446045993754e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>2.220005565410296e-14</v>
+        <v>7.332988301276109e-09</v>
       </c>
       <c r="D29" t="n">
-        <v>2.220005565410296e-14</v>
+        <v>2.220446045993754e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8878041751147661</v>
+        <v>0.9999999926669452</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1121958248851673</v>
+        <v>2.220446045993754e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8878041751147661</v>
+        <v>0.9999999926669452</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -4431,26 +4431,26 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314685.1_11.fasta</t>
+          <t>GB_GCA_902764605.1_7.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>2.220446049032868e-14</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>4.895098117792286e-10</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2.220446049032868e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0.9999999995104236</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2.220446049032868e-14</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0.9999999995104236</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -4461,26 +4461,26 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314685.1_9.fasta</t>
+          <t>GB_GCA_902777785.1_14.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>2.220446045527253e-14</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>8.383452415281146e-09</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>2.220446045527253e-14</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0.9999999916164809</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2.220446045527253e-14</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0.9999999916164809</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -4491,26 +4491,26 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902762185.1_6.fasta</t>
+          <t>GB_GCA_002349685.1_6.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.220446049197374e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.190761963409803e-10</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>2.220446049197374e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0.9999999998808572</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2.220446049197374e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.9999999998808572</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902764605.1_11.fasta</t>
+          <t>GB_GCA_900314685.1_16.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -4551,7 +4551,7 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902777785.1_19.fasta</t>
+          <t>GB_GCA_902764605.1_16.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -4581,7 +4581,7 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902778025.1_14.fasta</t>
+          <t>GB_GCA_902777465.1_19.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -4611,26 +4611,26 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902778025.1_19.fasta</t>
+          <t>GB_GCA_902788225.1_2.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.1047250537446042</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.2541016840140205</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.1047250537446042</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0.4317231547521669</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>0.1047250537446042</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0.4317231547521669</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902781485.1_16.fasta</t>
+          <t>GB_GCA_902788225.1_7.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -4766,22 +4766,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2.220446049249009e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.803481698693431e-12</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.220446049249009e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.220446049249009e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.9999999999971299</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.9999999999971299</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -4796,22 +4796,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2.220446049238622e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2.619312110613931e-11</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2.220446049238622e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2.220446049238622e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.9999999999737402</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.9999999999737402</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -4826,22 +4826,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2.220446049250212e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9.281758456854787e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2.220446049250212e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2.220446049250212e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.9999999999998405</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0.9999999999998405</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -4856,22 +4856,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2.220446049249866e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>8.7246820907604e-13</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2.220446049249866e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2.220446049249866e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.9999999999990609</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0.9999999999990609</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -4886,22 +4886,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2.220446049247642e-14</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5.88213189871871e-12</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2.220446049247642e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2.220446049247642e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0.9999999999940512</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.9999999999940512</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -4916,22 +4916,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2.220446049152164e-14</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2.20879078920226e-10</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2.220446049152164e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2.220446049152164e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0.9999999997790543</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.9999999997790543</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002481895.1_1.fasta</t>
+          <t>GB_GCA_900315165.1_5.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -4972,7 +4972,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900315165.1_16.fasta</t>
+          <t>GB_GCA_900315165.1_6.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -5002,7 +5002,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900315165.1_9.fasta</t>
+          <t>GB_GCA_902757205.1_13.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -5032,7 +5032,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902757205.1_12.fasta</t>
+          <t>GB_GCA_902757205.1_19.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -5062,7 +5062,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902757205.1_15.fasta</t>
+          <t>GB_GCA_902765265.1_12.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -5092,26 +5092,26 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902765265.1_7.fasta</t>
+          <t>GB_GCA_002350025.1_12.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.22016796079554e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.0006273542487218081</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.22016796079554e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.22016796079554e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0.9993726457512117</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.9993726457512117</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -5122,26 +5122,26 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902789005.1_2.fasta</t>
+          <t>GB_GCA_002481895.1_8.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2.22044594724819e-14</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2.296883826890772e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2.22044594724819e-14</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>2.22044594724819e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0.9999997703115507</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.9999997703115507</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -5152,26 +5152,26 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002350025.1_19.fasta</t>
+          <t>GB_GCA_900315165.1_7.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.220446023275455e-14</v>
+        <v>2.220445881014439e-14</v>
       </c>
       <c r="C16" t="n">
-        <v>5.849005563716701e-08</v>
+        <v>3.788337977909545e-07</v>
       </c>
       <c r="D16" t="n">
-        <v>2.220446023275455e-14</v>
+        <v>2.220445881014439e-14</v>
       </c>
       <c r="E16" t="n">
-        <v>2.220446023275455e-14</v>
+        <v>2.220445881014439e-14</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999999415098777</v>
+        <v>0.9999996211661356</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9999999415098777</v>
+        <v>0.9999996211661356</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -5182,56 +5182,56 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002481895.1_11.fasta</t>
+          <t>GB_GCA_902765265.1_11.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.220446049244714e-14</v>
+        <v>5.891563482851543e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>1.247428342358378e-11</v>
+        <v>2.721816495011783e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>2.220446049244714e-14</v>
+        <v>5.891563482851543e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>2.220446049244714e-14</v>
+        <v>0.4999986390916936</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999999999874591</v>
+        <v>0.4999986390916936</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9999999999874591</v>
+        <v>0.4999986390916936</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>s__Olegusella sp900315165</t>
+          <t>s__Olegusella sp900314685</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002481895.1_15.fasta</t>
+          <t>GB_GCA_902789005.1_5.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.220446049202774e-14</v>
+        <v>2.220445783678648e-14</v>
       </c>
       <c r="C18" t="n">
-        <v>1.069152085732898e-10</v>
+        <v>5.980151427406697e-07</v>
       </c>
       <c r="D18" t="n">
-        <v>2.220446049202774e-14</v>
+        <v>2.220445783678648e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>2.220446049202774e-14</v>
+        <v>2.220445783678648e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999999998930181</v>
+        <v>0.9999994019847906</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9999999998930181</v>
+        <v>0.9999994019847906</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -5242,26 +5242,26 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002481895.1_7.fasta</t>
+          <t>GB_GCA_002481895.1_2.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.220446039954499e-14</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2.093218199376737e-08</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>2.220446039954499e-14</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2.220446039954499e-14</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999999790677515</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9999999790677515</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -5272,26 +5272,26 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900315165.1_11.fasta</t>
+          <t>GB_GCA_900315165.1_14.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.220445941582659e-14</v>
+        <v>2.220445597003051e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>2.42446041409681e-07</v>
+        <v>1.018373209746838e-06</v>
       </c>
       <c r="D20" t="n">
-        <v>2.220445941582659e-14</v>
+        <v>2.220445597003051e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>2.220445941582659e-14</v>
+        <v>2.220445597003051e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999997575538919</v>
+        <v>0.9999989816267236</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9999997575538919</v>
+        <v>0.9999989816267236</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -5302,26 +5302,26 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902765265.1_4.fasta</t>
+          <t>GB_GCA_900315165.1_18.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.220446019195696e-14</v>
+        <v>2.220446049248694e-14</v>
       </c>
       <c r="C21" t="n">
-        <v>6.767686033665696e-08</v>
+        <v>3.512827314775431e-12</v>
       </c>
       <c r="D21" t="n">
-        <v>2.220446019195696e-14</v>
+        <v>2.220446049248694e-14</v>
       </c>
       <c r="E21" t="n">
-        <v>2.220446019195696e-14</v>
+        <v>2.220446049248694e-14</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999999323230729</v>
+        <v>0.9999999999964206</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9999999323230729</v>
+        <v>0.9999999999964206</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -5332,26 +5332,26 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002481895.1_2.fasta</t>
+          <t>GB_GCA_900315165.1_2.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2.220446048626042e-14</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.40560162003785e-09</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2.220446048626042e-14</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2.220446048626042e-14</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0.9999999985943319</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0.9999999985943319</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -5362,26 +5362,26 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900315165.1_14.fasta</t>
+          <t>GB_GCA_902777165.1_3.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.220445597003051e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.018373209746838e-06</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>2.220445597003051e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>2.220445597003051e-14</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999989816267236</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9999989816267236</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -5392,26 +5392,26 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900315165.1_18.fasta</t>
+          <t>GB_GCA_902789005.1_17.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.220446049248694e-14</v>
+        <v>2.22044604925024e-14</v>
       </c>
       <c r="C24" t="n">
-        <v>3.512827314775431e-12</v>
+        <v>3.139098235369718e-14</v>
       </c>
       <c r="D24" t="n">
-        <v>2.220446049248694e-14</v>
+        <v>2.22044604925024e-14</v>
       </c>
       <c r="E24" t="n">
-        <v>2.220446049248694e-14</v>
+        <v>2.22044604925024e-14</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999999999964206</v>
+        <v>0.9999999999999021</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9999999999964206</v>
+        <v>0.9999999999999021</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -5422,26 +5422,26 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900315165.1_2.fasta</t>
+          <t>GB_GCA_902789005.1_3.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.220446048626042e-14</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.40560162003785e-09</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>2.220446048626042e-14</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>2.220446048626042e-14</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999999985943319</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9999999985943319</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -5452,26 +5452,26 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902777165.1_3.fasta</t>
+          <t>GB_GCA_002350025.1_19.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.22044602495618e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>5.470540016429426e-08</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2.22044602495618e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2.22044602495618e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0.9999999452945333</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0.9999999452945333</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -5482,26 +5482,26 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902789005.1_17.fasta</t>
+          <t>GB_GCA_002481895.1_11.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.22044604925024e-14</v>
+        <v>2.220446049243979e-14</v>
       </c>
       <c r="C27" t="n">
-        <v>3.139098235369718e-14</v>
+        <v>1.413149355996641e-11</v>
       </c>
       <c r="D27" t="n">
-        <v>2.22044604925024e-14</v>
+        <v>2.220446049243979e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>2.22044604925024e-14</v>
+        <v>2.220446049243979e-14</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9999999999999021</v>
+        <v>0.9999999999858018</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9999999999999021</v>
+        <v>0.9999999999858018</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -5512,26 +5512,26 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902789005.1_3.fasta</t>
+          <t>GB_GCA_002481895.1_15.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2.220446049199023e-14</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.153612581272933e-10</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2.220446049199023e-14</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>2.220446049199023e-14</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0.9999999998845721</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0.9999999998845721</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -5542,26 +5542,26 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002350025.1_12.fasta</t>
+          <t>GB_GCA_002481895.1_7.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.219921269114521e-14</v>
+        <v>2.220446040351076e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001185826210027456</v>
+        <v>2.003916853152858e-08</v>
       </c>
       <c r="D29" t="n">
-        <v>2.219921269114521e-14</v>
+        <v>2.220446040351076e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>2.219921269114521e-14</v>
+        <v>2.220446040351076e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9988141737899059</v>
+        <v>0.999999979960765</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9988141737899059</v>
+        <v>0.999999979960765</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -5572,26 +5572,26 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002481895.1_8.fasta</t>
+          <t>GB_GCA_900315165.1_11.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.220445677605015e-14</v>
+        <v>2.22044595174376e-14</v>
       </c>
       <c r="C30" t="n">
-        <v>8.368727331133147e-07</v>
+        <v>2.195652461073046e-07</v>
       </c>
       <c r="D30" t="n">
-        <v>2.220445677605015e-14</v>
+        <v>2.22044595174376e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>2.220445677605015e-14</v>
+        <v>2.22044595174376e-14</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9999991631272004</v>
+        <v>0.9999997804346874</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9999991631272004</v>
+        <v>0.9999997804346874</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -5602,26 +5602,26 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900315165.1_7.fasta</t>
+          <t>GB_GCA_902765265.1_4.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.220445461143568e-14</v>
+        <v>2.220446021233219e-14</v>
       </c>
       <c r="C31" t="n">
-        <v>1.324303670766194e-06</v>
+        <v>6.308876375884311e-08</v>
       </c>
       <c r="D31" t="n">
-        <v>2.220445461143568e-14</v>
+        <v>2.220446021233219e-14</v>
       </c>
       <c r="E31" t="n">
-        <v>2.220445461143568e-14</v>
+        <v>2.220446021233219e-14</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9999986756962627</v>
+        <v>0.9999999369111696</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9999986756962627</v>
+        <v>0.9999999369111696</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -5632,26 +5632,26 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902765265.1_11.fasta</t>
+          <t>GB_GCA_002481895.1_1.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.891519965678368e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>8.761869361628637e-06</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.891519965678368e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4999956190652603</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4999956190652603</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4999956190652603</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -5662,26 +5662,26 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902789005.1_5.fasta</t>
+          <t>GB_GCA_900315165.1_16.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.220445155300734e-14</v>
+        <v>2.220446049249009e-14</v>
       </c>
       <c r="C33" t="n">
-        <v>2.013007248901711e-06</v>
+        <v>2.803481698693431e-12</v>
       </c>
       <c r="D33" t="n">
-        <v>2.220445155300734e-14</v>
+        <v>2.220446049249009e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>2.220445155300734e-14</v>
+        <v>2.220446049249009e-14</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9999979869926845</v>
+        <v>0.9999999999971299</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9999979869926845</v>
+        <v>0.9999999999971299</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -5692,26 +5692,26 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900315165.1_5.fasta</t>
+          <t>GB_GCA_900315165.1_9.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>2.220446049238622e-14</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>2.619312110613931e-11</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>2.220446049238622e-14</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2.220446049238622e-14</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0.9999999999737402</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0.9999999999737402</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -5722,26 +5722,26 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900315165.1_6.fasta</t>
+          <t>GB_GCA_902757205.1_12.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.220446049250212e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>9.281758456854787e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2.220446049250212e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>2.220446049250212e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0.9999999999998405</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0.9999999999998405</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -5752,26 +5752,26 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902757205.1_13.fasta</t>
+          <t>GB_GCA_902757205.1_15.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>2.220446049249866e-14</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>8.7246820907604e-13</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2.220446049249866e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>2.220446049249866e-14</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0.9999999999990609</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0.9999999999990609</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -5782,26 +5782,26 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902757205.1_19.fasta</t>
+          <t>GB_GCA_902765265.1_7.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>2.220446049247642e-14</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>5.88213189871871e-12</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2.220446049247642e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.220446049247642e-14</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0.9999999999940512</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0.9999999999940512</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -5812,26 +5812,26 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902765265.1_12.fasta</t>
+          <t>GB_GCA_902789005.1_2.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.220446049152164e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>2.20879078920226e-10</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>2.220446049152164e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>2.220446049152164e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0.9999999997790543</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0.9999999997790543</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
